--- a/out/Forecast_099558.xlsx
+++ b/out/Forecast_099558.xlsx
@@ -194,9 +194,15 @@
     <t>test account milestone</t>
   </si>
   <si>
+    <t>test account milestone 2</t>
+  </si>
+  <si>
     <t>test memo milestone</t>
   </si>
   <si>
+    <t>test memo milestone 2</t>
+  </si>
+  <si>
     <t>Composite_Milestone_Name</t>
   </si>
   <si>
@@ -210,12 +216,6 @@
   </si>
   <si>
     <t>Account</t>
-  </si>
-  <si>
-    <t>test account milestone 2</t>
-  </si>
-  <si>
-    <t>test memo milestone 2</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1104,7 +1104,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -1152,10 +1152,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>
@@ -1163,46 +1163,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
